--- a/results/DRSA/FileDRSA_DOMLEM_OLD1.xlsx
+++ b/results/DRSA/FileDRSA_DOMLEM_OLD1.xlsx
@@ -704,52 +704,52 @@
     <t>(age &gt;=  40.0) &amp; (woman_eval &lt;=  2.0) &amp; (infertility &gt;=  3.0) =&gt; (class &lt;= 1) ['a23']</t>
   </si>
   <si>
-    <t>(age &gt;=  39.0) &amp; (infertility &gt;=  3.0) =&gt; (class &lt;= 2) ['a23', 'a5', 'a6', 'a33', 'a11', 'a51']</t>
+    <t>(age &gt;=  39.0) &amp; (infertility &gt;=  3.0) =&gt; (class &lt;= 2) ['a11', 'a23', 'a6', 'a33', 'a5', 'a51']</t>
   </si>
   <si>
     <t>(morpho_quality &lt;=  9.0) &amp; (age &gt;=  33.0) &amp; (infertility &gt;=  5.0) =&gt; (class &lt;= 2) ['a30']</t>
   </si>
   <si>
-    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a21', 'a30', 'a5', 'a41', 'a47', 'a49', 'a1', 'a16', 'a50', 'a19', 'a22', 'a51', 'a3', 'a43', 'a23', 'a25', 'a44', 'a13', 'a11', 'a4', 'a9', 'a14', 'a12', 'a26', 'a33', 'a45', 'a7', 'a24', 'a17', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a21', 'a27', 'a30', 'a6', 'a16', 'a36', 'a41', 'a17', 'a31', 'a32', 'a42', 'a51', 'a29', 'a4']</t>
-  </si>
-  <si>
-    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a21', 'a8', 'a30', 'a37', 'a41', 'a49', 'a1', 'a16', 'a22', 'a51', 'a3', 'a44', 'a36', 'a32', 'a13', 'a11', 'a9', 'a12', 'a6', 'a26', 'a33', 'a7', 'a34', 'a38']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a27', 'a5', 'a41', 'a49', 'a1', 'a48', 'a22', 'a51', 'a3', 'a23', 'a36', 'a13', 'a11', 'a9', 'a12', 'a6', 'a33', 'a39', 'a17', 'a34', 'a29']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a2', 'a7', 'a42']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  34.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a20', 'a21', 'a35', 'a8', 'a37', 'a47', 'a10', 'a16', 'a28', 'a31', 'a19', 'a15', 'a43', 'a25', 'a44', 'a32', 'a18', 'a46', 'a2', 'a14', 'a26', 'a40', 'a45', 'a24', 'a42', 'a50', 'a38']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &gt;=  15.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a20', 'a8', 'a27', 'a37', 'a47', 'a10', 'a16', 'a50', 'a31', 'a48', 'a15', 'a18', 'a13', 'a46', 'a2', 'a14', 'a39', 'a42', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  36.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a20', 'a35', 'a8', 'a37', 'a47', 'a10', 'a28', 'a19', 'a15', 'a43', 'a25', 'a44', 'a18', 'a46', 'a2', 'a9', 'a14', 'a12', 'a26', 'a40', 'a45', 'a24', 'a39', 'a50', 'a38']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a15', 'a20', 'a14', 'a25', 'a44', 'a45', 'a7', 'a50', 'a18', 'a19', 'a46', 'a10', 'a2', 'a42', 'a4']</t>
+    <t>(develop_quality &lt;=  4.0) =&gt; (class &lt;= 3) ['a26', 'a9', 'a33', 'a38', 'a34', 'a14', 'a51', 'a29', 'a49', 'a12', 'a30', 'a17', 'a24', 'a23', 'a25', 'a43', 'a5', 'a21', 'a4', 'a44', 'a47', 'a16', 'a50', 'a7', 'a11', 'a45', 'a41', 'a1', 'a3', 'a13', 'a19', 'a22']</t>
+  </si>
+  <si>
+    <t>(infertility &gt;=  4.0) =&gt; (class &lt;= 3) ['a30', 'a17', 'a42', 'a6', 'a41', 'a27', 'a32', 'a36', 'a16', 'a51', 'a31', 'a21', 'a4', 'a29']</t>
+  </si>
+  <si>
+    <t>(oocytes &gt;=  4.0) =&gt; (class &lt;= 3) ['a26', 'a9', 'a33', 'a38', 'a34', 'a51', 'a49', 'a12', 'a30', 'a32', 'a21', 'a44', 'a8', 'a6', 'a37', 'a36', 'a16', 'a7', 'a11', 'a41', 'a1', 'a3', 'a13', 'a22']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  35.0) =&gt; (class &lt;= 3) ['a9', 'a33', 'a34', 'a51', 'a29', 'a49', 'a12', 'a17', 'a23', 'a5', 'a48', 'a6', 'a36', 'a11', 'a39', 'a41', 'a1', 'a27', 'a3', 'a13', 'a22']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a42', 'a2', 'a7']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  34.0) &amp; (morpho_quality &gt;=  10.0) =&gt; (class &gt;= 3) ['a26', 'a18', 'a38', 'a14', 'a40', 'a24', 'a25', 'a32', 'a43', 'a21', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a37', 'a16', 'a31', 'a35', 'a50', 'a46', 'a42', 'a45', 'a28', 'a15', 'a19']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &gt;=  15.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a18', 'a38', 'a34', 'a14', 'a29', 'a2', 'a10', 'a8', 'a20', 'a47', 'a48', 'a37', 'a16', 'a31', 'a50', 'a39', 'a46', 'a42', 'a27', 'a13', 'a15']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  36.0) &amp; (infertility &lt;=  3.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a26', 'a9', 'a18', 'a38', 'a14', 'a12', 'a40', 'a24', 'a25', 'a43', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a37', 'a35', 'a50', 'a39', 'a46', 'a45', 'a28', 'a15', 'a19']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 3) ['a20', 'a7', 'a46', 'a42', 'a45', 'a18', 'a25', 'a50', 'a15', 'a14', 'a44', 'a4', 'a19', 'a2', 'a10']</t>
   </si>
   <si>
     <t>(infertility &lt;=  1.0) &amp; (develop_quality &gt;=  4.0) =&gt; (class &gt;= 3) ['a2', 'a3']</t>
   </si>
   <si>
-    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a43', 'a8', 'a14', 'a12', 'a25', 'a45', 'a48', 'a49', 'a47', 'a39', 'a18', 'a13', 'a46', 'a10', 'a2', 'a38']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a20', 'a21', 'a35', 'a8', 'a27', 'a30', 'a37', 'a41', 'a47', 'a10', 'a1', 'a16', 'a50', 'a28', 'a31', 'a19', 'a22', 'a3', 'a15', 'a43', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a46', 'a11', 'a2', 'a4', 'a9', 'a14', 'a12', 'a26', 'a33', 'a40', 'a7', 'a45', 'a24', 'a39', 'a17', 'a42', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a20', 'a21', 'a8', 'a27', 'a30', 'a37', 'a5', 'a41', 'a47', 'a10', 'a1', 'a16', 'a50', 'a19', 'a48', 'a51', 'a43', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a11', 'a2', 'a4', 'a14', 'a12', 'a6', 'a26', 'a40', 'a7', 'a45', 'a24', 'a39', 'a17', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a8', 'a47', 'a10', 'a49', 'a1', 'a22', 'a48', 'a3', 'a43', 'a25', 'a18', 'a13', 'a46', 'a2', 'a14', 'a12', 'a45', 'a7', 'a39', 'a38']</t>
+    <t>(infertility &lt;=  2.0) &amp; (oocytes &lt;=  5.0) =&gt; (class &gt;= 3) ['a47', 'a49', 'a48', 'a39', 'a46', 'a45', 'a18', 'a25', 'a43', 'a38', 'a8', 'a13', 'a14', 'a2', 'a10', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a26', 'a9', 'a18', 'a33', 'a38', 'a34', 'a14', 'a29', 'a12', 'a30', 'a40', 'a17', 'a24', 'a25', 'a32', 'a43', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a37', 'a36', 'a16', 'a31', 'a35', 'a50', 'a7', 'a11', 'a39', 'a46', 'a42', 'a45', 'a28', 'a41', 'a1', 'a27', 'a3', 'a15', 'a13', 'a19', 'a22']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a26', 'a18', 'a38', 'a34', 'a14', 'a51', 'a29', 'a12', 'a30', 'a40', 'a17', 'a24', 'a25', 'a32', 'a43', 'a5', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a48', 'a6', 'a37', 'a36', 'a16', 'a50', 'a7', 'a11', 'a39', 'a45', 'a41', 'a1', 'a27', 'a13', 'a19']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a38', 'a14', 'a49', 'a12', 'a25', 'a43', 'a2', 'a10', 'a8', 'a47', 'a48', 'a7', 'a39', 'a46', 'a45', 'a1', 'a3', 'a13', 'a22']</t>
   </si>
   <si>
     <t>support</t>
@@ -761,16 +761,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>not_classified</t>
+  </si>
+  <si>
     <t>correct</t>
   </si>
   <si>
-    <t>not_classified</t>
-  </si>
-  <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -2760,7 +2760,7 @@
         <v>247</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>248</v>
       </c>
       <c r="B4">
-        <v>0.5882352941176471</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4878,7 @@
         <v>0.6274509803921569</v>
       </c>
       <c r="C5">
-        <v>0.8205128205128205</v>
+        <v>0.7441860465116279</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4922,7 +4922,7 @@
         <v>0.07843137254901961</v>
       </c>
       <c r="C9">
-        <v>0.1025641025641026</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4933,7 +4933,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>0.6279069767441861</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4977,7 +4977,7 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="C14">
-        <v>0.04651162790697674</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5010,7 +5010,7 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="C17">
-        <v>5.571428571428571</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
